--- a/Code/Results/Cases/Case_0_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_226/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.14746303036094</v>
+        <v>13.5103374419677</v>
       </c>
       <c r="D2">
-        <v>4.518314438738344</v>
+        <v>5.807195348332277</v>
       </c>
       <c r="E2">
-        <v>11.35963068704569</v>
+        <v>13.88759577122264</v>
       </c>
       <c r="F2">
-        <v>19.45922460857436</v>
+        <v>28.2902733630707</v>
       </c>
       <c r="G2">
-        <v>2.080670883231148</v>
+        <v>3.659546747970348</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.67006221580093</v>
+        <v>17.84801276844176</v>
       </c>
       <c r="L2">
-        <v>6.0440364624987</v>
+        <v>9.272026402312269</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.49042809451601</v>
+        <v>25.35161928723556</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.54474783511137</v>
+        <v>13.41530690557805</v>
       </c>
       <c r="D3">
-        <v>4.451742492819205</v>
+        <v>5.792500359450488</v>
       </c>
       <c r="E3">
-        <v>10.86876671291012</v>
+        <v>13.83013753036113</v>
       </c>
       <c r="F3">
-        <v>19.1166998224662</v>
+        <v>28.40750983078185</v>
       </c>
       <c r="G3">
-        <v>2.08789398596463</v>
+        <v>3.662174936785862</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.03387187509074</v>
+        <v>17.20093179204931</v>
       </c>
       <c r="L3">
-        <v>5.919074476329333</v>
+        <v>9.275739278880121</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.50566394886395</v>
+        <v>25.50005700089996</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.16760774738514</v>
+        <v>13.36010113374495</v>
       </c>
       <c r="D4">
-        <v>4.411095679190153</v>
+        <v>5.783758264208245</v>
       </c>
       <c r="E4">
-        <v>10.56470148061372</v>
+        <v>13.79803977427057</v>
       </c>
       <c r="F4">
-        <v>18.93813588979371</v>
+        <v>28.48999482707744</v>
       </c>
       <c r="G4">
-        <v>2.092444613993155</v>
+        <v>3.663871897827856</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.97141476861719</v>
+        <v>16.79157327881205</v>
       </c>
       <c r="L4">
-        <v>5.844888904558522</v>
+        <v>9.279579434145425</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.54305463597144</v>
+        <v>25.59928568273649</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.01233208663098</v>
+        <v>13.33841497042997</v>
       </c>
       <c r="D5">
-        <v>4.394595768082799</v>
+        <v>5.780267962126624</v>
       </c>
       <c r="E5">
-        <v>10.44028120618473</v>
+        <v>13.78576914592855</v>
       </c>
       <c r="F5">
-        <v>18.87312119347333</v>
+        <v>28.52623106973841</v>
       </c>
       <c r="G5">
-        <v>2.094329294422042</v>
+        <v>3.664584426751691</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.52382806635442</v>
+        <v>16.62195251516173</v>
       </c>
       <c r="L5">
-        <v>5.815310984119142</v>
+        <v>9.281536879988106</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.56491410169913</v>
+        <v>25.64174561761457</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.98645897680614</v>
+        <v>13.33486352168645</v>
       </c>
       <c r="D6">
-        <v>4.39186003832674</v>
+        <v>5.779692805044164</v>
       </c>
       <c r="E6">
-        <v>10.41959555899319</v>
+        <v>13.78378076017065</v>
       </c>
       <c r="F6">
-        <v>18.86278619653679</v>
+        <v>28.53240595868052</v>
       </c>
       <c r="G6">
-        <v>2.094644105440369</v>
+        <v>3.664704012299405</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.44862091527412</v>
+        <v>16.5936248338293</v>
       </c>
       <c r="L6">
-        <v>5.810439454077857</v>
+        <v>9.281885623932364</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.56893132873919</v>
+        <v>25.64891797143752</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.16551979969529</v>
+        <v>13.35980535871019</v>
       </c>
       <c r="D7">
-        <v>4.410872887424714</v>
+        <v>5.78371089849135</v>
       </c>
       <c r="E7">
-        <v>10.56302534675738</v>
+        <v>13.79787099919147</v>
       </c>
       <c r="F7">
-        <v>18.93722802777348</v>
+        <v>28.49047292552545</v>
       </c>
       <c r="G7">
-        <v>2.092469907395913</v>
+        <v>3.663881422105624</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.96543778707408</v>
+        <v>16.78929675085607</v>
       </c>
       <c r="L7">
-        <v>5.844487342813907</v>
+        <v>9.279604243393937</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.54332319142739</v>
+        <v>25.59985013294023</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.94121787822382</v>
+        <v>13.47693107652227</v>
       </c>
       <c r="D8">
-        <v>4.495316645977867</v>
+        <v>5.802071221271587</v>
       </c>
       <c r="E8">
-        <v>11.19102517436736</v>
+        <v>13.86712971842357</v>
       </c>
       <c r="F8">
-        <v>19.33440564234617</v>
+        <v>28.32850649942874</v>
       </c>
       <c r="G8">
-        <v>2.083138153393326</v>
+        <v>3.660435713653383</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.11785205749906</v>
+        <v>17.62752803477796</v>
       </c>
       <c r="L8">
-        <v>6.000430651963458</v>
+        <v>9.272982869358708</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.48960627240201</v>
+        <v>25.401115956171</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.39963446867831</v>
+        <v>13.73059996239428</v>
       </c>
       <c r="D9">
-        <v>4.662487600452693</v>
+        <v>5.840232779524119</v>
       </c>
       <c r="E9">
-        <v>12.39543734715845</v>
+        <v>14.02773291351732</v>
       </c>
       <c r="F9">
-        <v>20.37351793587617</v>
+        <v>28.09497377807578</v>
       </c>
       <c r="G9">
-        <v>2.065698063363837</v>
+        <v>3.654335909762554</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.88421012843427</v>
+        <v>19.16695647527061</v>
       </c>
       <c r="L9">
-        <v>6.325795415731567</v>
+        <v>9.272368386255641</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.6255183341978</v>
+        <v>25.07602453193962</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.42634111787488</v>
+        <v>13.93022642313714</v>
       </c>
       <c r="D10">
-        <v>4.786039721820621</v>
+        <v>5.869490841818962</v>
       </c>
       <c r="E10">
-        <v>13.25764626786802</v>
+        <v>14.16015762924786</v>
       </c>
       <c r="F10">
-        <v>21.30449129977795</v>
+        <v>27.97564458099411</v>
       </c>
       <c r="G10">
-        <v>2.053321361779956</v>
+        <v>3.650250450780824</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.38091488824088</v>
+        <v>20.22420561770426</v>
       </c>
       <c r="L10">
-        <v>6.576055084890807</v>
+        <v>9.27943687154016</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.89721050491093</v>
+        <v>24.87720349701577</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.88291665186231</v>
+        <v>14.02360727815213</v>
       </c>
       <c r="D11">
-        <v>4.842384650050626</v>
+        <v>5.883045597918269</v>
       </c>
       <c r="E11">
-        <v>13.64414847811586</v>
+        <v>14.22336970213917</v>
       </c>
       <c r="F11">
-        <v>21.76571325664107</v>
+        <v>27.93289726224501</v>
       </c>
       <c r="G11">
-        <v>2.047764294788686</v>
+        <v>3.648476892004171</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.45962093959782</v>
+        <v>20.68741696037265</v>
       </c>
       <c r="L11">
-        <v>6.692233575806402</v>
+        <v>9.284278179339417</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.06304076609573</v>
+        <v>24.79558035513524</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.05427439297441</v>
+        <v>14.05931021499693</v>
       </c>
       <c r="D12">
-        <v>4.863741374989205</v>
+        <v>5.888211863744474</v>
       </c>
       <c r="E12">
-        <v>13.78964662973844</v>
+        <v>14.24771856039655</v>
       </c>
       <c r="F12">
-        <v>21.94587226748802</v>
+        <v>27.91838324184546</v>
       </c>
       <c r="G12">
-        <v>2.045668545701611</v>
+        <v>3.647817430721208</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>31.86003704252427</v>
+        <v>20.86015160609313</v>
       </c>
       <c r="L12">
-        <v>6.736558049446365</v>
+        <v>9.286344364947459</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.13228015289961</v>
+        <v>24.76595155995326</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.01743803346955</v>
+        <v>14.05160620474936</v>
       </c>
       <c r="D13">
-        <v>4.859140908297946</v>
+        <v>5.887097761723317</v>
       </c>
       <c r="E13">
-        <v>13.75834971056035</v>
+        <v>14.24245653658774</v>
       </c>
       <c r="F13">
-        <v>21.90682577564122</v>
+        <v>27.92143444748352</v>
       </c>
       <c r="G13">
-        <v>2.046119553315724</v>
+        <v>3.647958918330612</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>31.77415671474583</v>
+        <v>20.82307079697258</v>
       </c>
       <c r="L13">
-        <v>6.726997336341246</v>
+        <v>9.285889033099721</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.1170760604837</v>
+        <v>24.77227553309885</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.89704525453447</v>
+        <v>14.02653789524286</v>
       </c>
       <c r="D14">
-        <v>4.844141271128951</v>
+        <v>5.883469971669973</v>
       </c>
       <c r="E14">
-        <v>13.65613611433318</v>
+        <v>14.22536473516003</v>
       </c>
       <c r="F14">
-        <v>21.78042429365951</v>
+        <v>27.93166956670891</v>
       </c>
       <c r="G14">
-        <v>2.04759171575704</v>
+        <v>3.648422394666475</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31.49272424813948</v>
+        <v>20.70168216982836</v>
       </c>
       <c r="L14">
-        <v>6.695873575305092</v>
+        <v>9.284443503949916</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.06860598345619</v>
+        <v>24.79311705451741</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.82310050145889</v>
+        <v>14.01122648472399</v>
       </c>
       <c r="D15">
-        <v>4.834956210533234</v>
+        <v>5.881252135770056</v>
       </c>
       <c r="E15">
-        <v>13.59341432520752</v>
+        <v>14.21494867230248</v>
       </c>
       <c r="F15">
-        <v>21.70371883238415</v>
+        <v>27.9381572212283</v>
       </c>
       <c r="G15">
-        <v>2.048494516315548</v>
+        <v>3.648707867215798</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.31929252556001</v>
+        <v>20.62697659948666</v>
       </c>
       <c r="L15">
-        <v>6.676852285071794</v>
+        <v>9.283588375146881</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.03976624317904</v>
+        <v>24.80605014104605</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.39628876194598</v>
+        <v>13.92417310429799</v>
       </c>
       <c r="D16">
-        <v>4.782360226542719</v>
+        <v>5.868609779381335</v>
       </c>
       <c r="E16">
-        <v>13.23226844687058</v>
+        <v>14.1560850592218</v>
       </c>
       <c r="F16">
-        <v>21.27511539733139</v>
+        <v>27.97867162587997</v>
       </c>
       <c r="G16">
-        <v>2.053685840502897</v>
+        <v>3.650368060439886</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.30928236011853</v>
+        <v>20.19356587655114</v>
       </c>
       <c r="L16">
-        <v>6.56850895701331</v>
+        <v>9.279153122399492</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.88725521479</v>
+        <v>24.88271626417298</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.13173968096212</v>
+        <v>13.87140720732829</v>
       </c>
       <c r="D17">
-        <v>4.750129644407975</v>
+        <v>5.860915558059121</v>
       </c>
       <c r="E17">
-        <v>13.00921672247335</v>
+        <v>14.12072442842988</v>
       </c>
       <c r="F17">
-        <v>21.02190159415201</v>
+        <v>28.00649128998012</v>
       </c>
       <c r="G17">
-        <v>2.056887970388858</v>
+        <v>3.651408241888796</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>29.67515526754221</v>
+        <v>19.92304691904925</v>
       </c>
       <c r="L17">
-        <v>6.502636517741026</v>
+        <v>9.276848052822357</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.80478379675161</v>
+        <v>24.932016104116</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.97859191278737</v>
+        <v>13.84130125262939</v>
       </c>
       <c r="D18">
-        <v>4.73160458396196</v>
+        <v>5.856513230610858</v>
       </c>
       <c r="E18">
-        <v>12.88038566930417</v>
+        <v>14.10066658836516</v>
       </c>
       <c r="F18">
-        <v>20.87980593514385</v>
+        <v>28.02357745319017</v>
       </c>
       <c r="G18">
-        <v>2.05873676219082</v>
+        <v>3.652014525392301</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.30504273348603</v>
+        <v>19.76578836269407</v>
       </c>
       <c r="L18">
-        <v>6.464968230063309</v>
+        <v>9.275675330709925</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.7613034343925</v>
+        <v>24.96120170003762</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.92657070145888</v>
+        <v>13.83115057095968</v>
       </c>
       <c r="D19">
-        <v>4.725334601635995</v>
+        <v>5.855026716969856</v>
       </c>
       <c r="E19">
-        <v>12.83667492377018</v>
+        <v>14.09392401055797</v>
       </c>
       <c r="F19">
-        <v>20.83230125950659</v>
+        <v>28.02954842761961</v>
       </c>
       <c r="G19">
-        <v>2.059363991415545</v>
+        <v>3.652221178390221</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.17880102272336</v>
+        <v>19.71226167720555</v>
       </c>
       <c r="L19">
-        <v>6.452252377297092</v>
+        <v>9.275304586168835</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.74724930518119</v>
+        <v>24.97122557830832</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.16000374793837</v>
+        <v>13.87699921629476</v>
       </c>
       <c r="D20">
-        <v>4.753559293595018</v>
+        <v>5.861732234957543</v>
       </c>
       <c r="E20">
-        <v>13.03301695547562</v>
+        <v>14.12445969036766</v>
       </c>
       <c r="F20">
-        <v>21.0484890079729</v>
+        <v>28.00341743381743</v>
       </c>
       <c r="G20">
-        <v>2.056546385944423</v>
+        <v>3.651296685452766</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.74321495718076</v>
+        <v>19.9520172020437</v>
       </c>
       <c r="L20">
-        <v>6.509626055718054</v>
+        <v>9.277077592952709</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.81315092740085</v>
+        <v>24.92668210415102</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.93244937648465</v>
+        <v>14.03389201875128</v>
       </c>
       <c r="D21">
-        <v>4.848546473324024</v>
+        <v>5.884534650835218</v>
       </c>
       <c r="E21">
-        <v>13.6861823142385</v>
+        <v>14.23037396189291</v>
       </c>
       <c r="F21">
-        <v>21.8174014772884</v>
+        <v>27.92861773596291</v>
       </c>
       <c r="G21">
-        <v>2.047159089062819</v>
+        <v>3.64828593129942</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.57560555323535</v>
+        <v>20.73741040778648</v>
       </c>
       <c r="L21">
-        <v>6.705006439160574</v>
+        <v>9.28486177831957</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.08266514684098</v>
+        <v>24.7869605601302</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.42832928247267</v>
+        <v>14.13840852716244</v>
       </c>
       <c r="D22">
-        <v>4.910744726674329</v>
+        <v>5.899630991365381</v>
       </c>
       <c r="E22">
-        <v>14.10803812480415</v>
+        <v>14.30198776739427</v>
       </c>
       <c r="F22">
-        <v>22.35204857078831</v>
+        <v>27.8894920138072</v>
       </c>
       <c r="G22">
-        <v>2.041072995920808</v>
+        <v>3.646389000267833</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>32.72623296279814</v>
+        <v>21.23508153086626</v>
       </c>
       <c r="L22">
-        <v>6.83462413887775</v>
+        <v>9.291306118462744</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.29651549662406</v>
+        <v>24.70311132447772</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.16449201637574</v>
+        <v>14.08245447004913</v>
       </c>
       <c r="D23">
-        <v>4.877537020197775</v>
+        <v>5.891556696752093</v>
       </c>
       <c r="E23">
-        <v>13.88335259698918</v>
+        <v>14.26355249774222</v>
       </c>
       <c r="F23">
-        <v>22.06373300288674</v>
+        <v>27.90947655319657</v>
       </c>
       <c r="G23">
-        <v>2.044317456264438</v>
+        <v>3.647394974528549</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.11636855438692</v>
+        <v>20.97093161111772</v>
       </c>
       <c r="L23">
-        <v>6.765269224504188</v>
+        <v>9.287742829884946</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.1788142793801</v>
+        <v>24.74717619445868</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.14722884664056</v>
+        <v>13.87447035095497</v>
       </c>
       <c r="D24">
-        <v>4.752008734432354</v>
+        <v>5.861362949173415</v>
       </c>
       <c r="E24">
-        <v>13.02225872218677</v>
+        <v>14.12277013173875</v>
       </c>
       <c r="F24">
-        <v>21.03645800381889</v>
+        <v>28.00480372284142</v>
       </c>
       <c r="G24">
-        <v>2.056700791693795</v>
+        <v>3.651347094353157</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.71246245146689</v>
+        <v>19.9389251274086</v>
       </c>
       <c r="L24">
-        <v>6.506465453899818</v>
+        <v>9.276973342791255</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.80935592383402</v>
+        <v>24.92909098206809</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.01260248943966</v>
+        <v>13.65954457654762</v>
       </c>
       <c r="D25">
-        <v>4.617122739703662</v>
+        <v>5.829687746094918</v>
       </c>
       <c r="E25">
-        <v>12.07323794436117</v>
+        <v>13.98169837206123</v>
       </c>
       <c r="F25">
-        <v>20.06350773930091</v>
+        <v>28.14904359960287</v>
       </c>
       <c r="G25">
-        <v>2.070332660893471</v>
+        <v>3.655916184527234</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>26.91331669901126</v>
+        <v>18.76280094786733</v>
       </c>
       <c r="L25">
-        <v>6.235760692290587</v>
+        <v>9.271211960991453</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.56030842997884</v>
+        <v>25.15698723513228</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_226/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.5103374419677</v>
+        <v>12.14746303036092</v>
       </c>
       <c r="D2">
-        <v>5.807195348332277</v>
+        <v>4.518314438738381</v>
       </c>
       <c r="E2">
-        <v>13.88759577122264</v>
+        <v>11.35963068704568</v>
       </c>
       <c r="F2">
-        <v>28.2902733630707</v>
+        <v>19.45922460857458</v>
       </c>
       <c r="G2">
-        <v>3.659546747970348</v>
+        <v>2.080670883231281</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.84801276844176</v>
+        <v>24.67006221580087</v>
       </c>
       <c r="L2">
-        <v>9.272026402312269</v>
+        <v>6.044036462498754</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.35161928723556</v>
+        <v>15.49042809451625</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.41530690557805</v>
+        <v>11.54474783511128</v>
       </c>
       <c r="D3">
-        <v>5.792500359450488</v>
+        <v>4.451742492819538</v>
       </c>
       <c r="E3">
-        <v>13.83013753036113</v>
+        <v>10.8687667129101</v>
       </c>
       <c r="F3">
-        <v>28.40750983078185</v>
+        <v>19.11669982246618</v>
       </c>
       <c r="G3">
-        <v>3.662174936785862</v>
+        <v>2.087893985964364</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.20093179204931</v>
+        <v>23.03387187509071</v>
       </c>
       <c r="L3">
-        <v>9.275739278880121</v>
+        <v>5.919074476329324</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.50005700089996</v>
+        <v>15.50566394886403</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.36010113374495</v>
+        <v>11.16760774738504</v>
       </c>
       <c r="D4">
-        <v>5.783758264208245</v>
+        <v>4.41109567919033</v>
       </c>
       <c r="E4">
-        <v>13.79803977427057</v>
+        <v>10.56470148061368</v>
       </c>
       <c r="F4">
-        <v>28.48999482707744</v>
+        <v>18.93813588979381</v>
       </c>
       <c r="G4">
-        <v>3.663871897827856</v>
+        <v>2.092444613992888</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.79157327881205</v>
+        <v>21.97141476861717</v>
       </c>
       <c r="L4">
-        <v>9.279579434145425</v>
+        <v>5.844888904558517</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.59928568273649</v>
+        <v>15.54305463597157</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.33841497042997</v>
+        <v>11.01233208663098</v>
       </c>
       <c r="D5">
-        <v>5.780267962126624</v>
+        <v>4.394595768082665</v>
       </c>
       <c r="E5">
-        <v>13.78576914592855</v>
+        <v>10.4402812061847</v>
       </c>
       <c r="F5">
-        <v>28.52623106973841</v>
+        <v>18.87312119347321</v>
       </c>
       <c r="G5">
-        <v>3.664584426751691</v>
+        <v>2.094329294422042</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.62195251516173</v>
+        <v>21.52382806635448</v>
       </c>
       <c r="L5">
-        <v>9.281536879988106</v>
+        <v>5.815310984119122</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.64174561761457</v>
+        <v>15.56491410169899</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.33486352168645</v>
+        <v>10.98645897680605</v>
       </c>
       <c r="D6">
-        <v>5.779692805044164</v>
+        <v>4.391860038326968</v>
       </c>
       <c r="E6">
-        <v>13.78378076017065</v>
+        <v>10.41959555899306</v>
       </c>
       <c r="F6">
-        <v>28.53240595868052</v>
+        <v>18.86278619653633</v>
       </c>
       <c r="G6">
-        <v>3.664704012299405</v>
+        <v>2.094644105440234</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.5936248338293</v>
+        <v>21.44862091527421</v>
       </c>
       <c r="L6">
-        <v>9.281885623932364</v>
+        <v>5.810439454077787</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.64891797143752</v>
+        <v>15.56893132873884</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.35980535871019</v>
+        <v>11.16551979969527</v>
       </c>
       <c r="D7">
-        <v>5.78371089849135</v>
+        <v>4.410872887424842</v>
       </c>
       <c r="E7">
-        <v>13.79787099919147</v>
+        <v>10.56302534675735</v>
       </c>
       <c r="F7">
-        <v>28.49047292552545</v>
+        <v>18.93722802777345</v>
       </c>
       <c r="G7">
-        <v>3.663881422105624</v>
+        <v>2.09246990739578</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.78929675085607</v>
+        <v>21.96543778707406</v>
       </c>
       <c r="L7">
-        <v>9.279604243393937</v>
+        <v>5.844487342813926</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.59985013294023</v>
+        <v>15.54332319142739</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.47693107652227</v>
+        <v>11.94121787822386</v>
       </c>
       <c r="D8">
-        <v>5.802071221271587</v>
+        <v>4.495316645977812</v>
       </c>
       <c r="E8">
-        <v>13.86712971842357</v>
+        <v>11.19102517436736</v>
       </c>
       <c r="F8">
-        <v>28.32850649942874</v>
+        <v>19.33440564234614</v>
       </c>
       <c r="G8">
-        <v>3.660435713653383</v>
+        <v>2.083138153393461</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.62752803477796</v>
+        <v>24.11785205749907</v>
       </c>
       <c r="L8">
-        <v>9.272982869358708</v>
+        <v>6.000430651963442</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.401115956171</v>
+        <v>15.48960627240195</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.73059996239428</v>
+        <v>13.39963446867826</v>
       </c>
       <c r="D9">
-        <v>5.840232779524119</v>
+        <v>4.662487600452698</v>
       </c>
       <c r="E9">
-        <v>14.02773291351732</v>
+        <v>12.39543734715841</v>
       </c>
       <c r="F9">
-        <v>28.09497377807578</v>
+        <v>20.37351793587598</v>
       </c>
       <c r="G9">
-        <v>3.654335909762554</v>
+        <v>2.065698063363838</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.16695647527061</v>
+        <v>27.88421012843428</v>
       </c>
       <c r="L9">
-        <v>9.272368386255641</v>
+        <v>6.325795415731516</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.07602453193962</v>
+        <v>15.62551833419764</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.93022642313714</v>
+        <v>14.42634111787488</v>
       </c>
       <c r="D10">
-        <v>5.869490841818962</v>
+        <v>4.786039721820621</v>
       </c>
       <c r="E10">
-        <v>14.16015762924786</v>
+        <v>13.25764626786804</v>
       </c>
       <c r="F10">
-        <v>27.97564458099411</v>
+        <v>21.30449129977793</v>
       </c>
       <c r="G10">
-        <v>3.650250450780824</v>
+        <v>2.053321361779689</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.22420561770426</v>
+        <v>30.38091488824088</v>
       </c>
       <c r="L10">
-        <v>9.27943687154016</v>
+        <v>6.576055084890794</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.87720349701577</v>
+        <v>15.8972105049109</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.02360727815213</v>
+        <v>14.88291665186231</v>
       </c>
       <c r="D11">
-        <v>5.883045597918269</v>
+        <v>4.842384650050839</v>
       </c>
       <c r="E11">
-        <v>14.22336970213917</v>
+        <v>13.64414847811587</v>
       </c>
       <c r="F11">
-        <v>27.93289726224501</v>
+        <v>21.76571325664104</v>
       </c>
       <c r="G11">
-        <v>3.648476892004171</v>
+        <v>2.047764294788685</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.68741696037265</v>
+        <v>31.45962093959785</v>
       </c>
       <c r="L11">
-        <v>9.284278179339417</v>
+        <v>6.69223357580641</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.79558035513524</v>
+        <v>16.0630407660957</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.05931021499693</v>
+        <v>15.0542743929744</v>
       </c>
       <c r="D12">
-        <v>5.888211863744474</v>
+        <v>4.863741374989011</v>
       </c>
       <c r="E12">
-        <v>14.24771856039655</v>
+        <v>13.78964662973843</v>
       </c>
       <c r="F12">
-        <v>27.91838324184546</v>
+        <v>21.94587226748811</v>
       </c>
       <c r="G12">
-        <v>3.647817430721208</v>
+        <v>2.045668545701878</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.86015160609313</v>
+        <v>31.86003704252425</v>
       </c>
       <c r="L12">
-        <v>9.286344364947459</v>
+        <v>6.736558049446343</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.76595155995326</v>
+        <v>16.13228015289966</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>14.05160620474936</v>
+        <v>15.01743803346956</v>
       </c>
       <c r="D13">
-        <v>5.887097761723317</v>
+        <v>4.859140908297752</v>
       </c>
       <c r="E13">
-        <v>14.24245653658774</v>
+        <v>13.75834971056039</v>
       </c>
       <c r="F13">
-        <v>27.92143444748352</v>
+        <v>21.90682577564119</v>
       </c>
       <c r="G13">
-        <v>3.647958918330612</v>
+        <v>2.046119553315993</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.82307079697258</v>
+        <v>31.77415671474584</v>
       </c>
       <c r="L13">
-        <v>9.285889033099721</v>
+        <v>6.726997336341293</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.77227553309885</v>
+        <v>16.11707606048367</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.02653789524286</v>
+        <v>14.89704525453447</v>
       </c>
       <c r="D14">
-        <v>5.883469971669973</v>
+        <v>4.844141271128957</v>
       </c>
       <c r="E14">
-        <v>14.22536473516003</v>
+        <v>13.65613611433316</v>
       </c>
       <c r="F14">
-        <v>27.93166956670891</v>
+        <v>21.7804242936595</v>
       </c>
       <c r="G14">
-        <v>3.648422394666475</v>
+        <v>2.047591715756906</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.70168216982836</v>
+        <v>31.49272424813947</v>
       </c>
       <c r="L14">
-        <v>9.284443503949916</v>
+        <v>6.695873575305066</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.79311705451741</v>
+        <v>16.06860598345619</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.01122648472399</v>
+        <v>14.82310050145891</v>
       </c>
       <c r="D15">
-        <v>5.881252135770056</v>
+        <v>4.834956210533194</v>
       </c>
       <c r="E15">
-        <v>14.21494867230248</v>
+        <v>13.5934143252075</v>
       </c>
       <c r="F15">
-        <v>27.9381572212283</v>
+        <v>21.70371883238406</v>
       </c>
       <c r="G15">
-        <v>3.648707867215798</v>
+        <v>2.04849451631528</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.62697659948666</v>
+        <v>31.31929252556005</v>
       </c>
       <c r="L15">
-        <v>9.283588375146881</v>
+        <v>6.676852285071782</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.80605014104605</v>
+        <v>16.03976624317894</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.92417310429799</v>
+        <v>14.39628876194595</v>
       </c>
       <c r="D16">
-        <v>5.868609779381335</v>
+        <v>4.782360226542661</v>
       </c>
       <c r="E16">
-        <v>14.1560850592218</v>
+        <v>13.23226844687062</v>
       </c>
       <c r="F16">
-        <v>27.97867162587997</v>
+        <v>21.27511539733137</v>
       </c>
       <c r="G16">
-        <v>3.650368060439886</v>
+        <v>2.053685840502763</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.19356587655114</v>
+        <v>30.30928236011853</v>
       </c>
       <c r="L16">
-        <v>9.279153122399492</v>
+        <v>6.568508957013329</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.88271626417298</v>
+        <v>15.88725521478997</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.87140720732829</v>
+        <v>14.13173968096215</v>
       </c>
       <c r="D17">
-        <v>5.860915558059121</v>
+        <v>4.750129644407928</v>
       </c>
       <c r="E17">
-        <v>14.12072442842988</v>
+        <v>13.00921672247333</v>
       </c>
       <c r="F17">
-        <v>28.00649128998012</v>
+        <v>21.02190159415208</v>
       </c>
       <c r="G17">
-        <v>3.651408241888796</v>
+        <v>2.056887970388858</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.92304691904925</v>
+        <v>29.67515526754223</v>
       </c>
       <c r="L17">
-        <v>9.276848052822357</v>
+        <v>6.502636517741016</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.932016104116</v>
+        <v>15.80478379675167</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.84130125262939</v>
+        <v>13.97859191278744</v>
       </c>
       <c r="D18">
-        <v>5.856513230610858</v>
+        <v>4.731604583961923</v>
       </c>
       <c r="E18">
-        <v>14.10066658836516</v>
+        <v>12.88038566930421</v>
       </c>
       <c r="F18">
-        <v>28.02357745319017</v>
+        <v>20.87980593514386</v>
       </c>
       <c r="G18">
-        <v>3.652014525392301</v>
+        <v>2.058736762191221</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.76578836269407</v>
+        <v>29.30504273348604</v>
       </c>
       <c r="L18">
-        <v>9.275675330709925</v>
+        <v>6.464968230063306</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.96120170003762</v>
+        <v>15.76130343439251</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.83115057095968</v>
+        <v>13.92657070145892</v>
       </c>
       <c r="D19">
-        <v>5.855026716969856</v>
+        <v>4.725334601635983</v>
       </c>
       <c r="E19">
-        <v>14.09392401055797</v>
+        <v>12.83667492377021</v>
       </c>
       <c r="F19">
-        <v>28.02954842761961</v>
+        <v>20.83230125950663</v>
       </c>
       <c r="G19">
-        <v>3.652221178390221</v>
+        <v>2.059363991415545</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.71226167720555</v>
+        <v>29.17880102272336</v>
       </c>
       <c r="L19">
-        <v>9.275304586168835</v>
+        <v>6.452252377297111</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.97122557830832</v>
+        <v>15.74724930518124</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.87699921629476</v>
+        <v>14.16000374793841</v>
       </c>
       <c r="D20">
-        <v>5.861732234957543</v>
+        <v>4.753559293595011</v>
       </c>
       <c r="E20">
-        <v>14.12445969036766</v>
+        <v>13.03301695547564</v>
       </c>
       <c r="F20">
-        <v>28.00341743381743</v>
+        <v>21.0484890079729</v>
       </c>
       <c r="G20">
-        <v>3.651296685452766</v>
+        <v>2.056546385944556</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.9520172020437</v>
+        <v>29.74321495718079</v>
       </c>
       <c r="L20">
-        <v>9.277077592952709</v>
+        <v>6.509626055718027</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.92668210415102</v>
+        <v>15.81315092740084</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.03389201875128</v>
+        <v>14.93244937648463</v>
       </c>
       <c r="D21">
-        <v>5.884534650835218</v>
+        <v>4.848546473324008</v>
       </c>
       <c r="E21">
-        <v>14.23037396189291</v>
+        <v>13.6861823142385</v>
       </c>
       <c r="F21">
-        <v>27.92861773596291</v>
+        <v>21.81740147728837</v>
       </c>
       <c r="G21">
-        <v>3.64828593129942</v>
+        <v>2.047159089062953</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.73741040778648</v>
+        <v>31.57560555323538</v>
       </c>
       <c r="L21">
-        <v>9.28486177831957</v>
+        <v>6.70500643916059</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.7869605601302</v>
+        <v>16.08266514684095</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.13840852716244</v>
+        <v>15.4283292824727</v>
       </c>
       <c r="D22">
-        <v>5.899630991365381</v>
+        <v>4.910744726674285</v>
       </c>
       <c r="E22">
-        <v>14.30198776739427</v>
+        <v>14.10803812480418</v>
       </c>
       <c r="F22">
-        <v>27.8894920138072</v>
+        <v>22.3520485707883</v>
       </c>
       <c r="G22">
-        <v>3.646389000267833</v>
+        <v>2.041072995920942</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.23508153086626</v>
+        <v>32.72623296279813</v>
       </c>
       <c r="L22">
-        <v>9.291306118462744</v>
+        <v>6.834624138877762</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.70311132447772</v>
+        <v>16.29651549662405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.08245447004913</v>
+        <v>15.16449201637579</v>
       </c>
       <c r="D23">
-        <v>5.891556696752093</v>
+        <v>4.877537020197788</v>
       </c>
       <c r="E23">
-        <v>14.26355249774222</v>
+        <v>13.88335259698921</v>
       </c>
       <c r="F23">
-        <v>27.90947655319657</v>
+        <v>22.0637330028867</v>
       </c>
       <c r="G23">
-        <v>3.647394974528549</v>
+        <v>2.044317456264304</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.97093161111772</v>
+        <v>32.11636855438699</v>
       </c>
       <c r="L23">
-        <v>9.287742829884946</v>
+        <v>6.76526922450422</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.74717619445868</v>
+        <v>16.17881427938001</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.87447035095497</v>
+        <v>14.14722884664051</v>
       </c>
       <c r="D24">
-        <v>5.861362949173415</v>
+        <v>4.752008734432449</v>
       </c>
       <c r="E24">
-        <v>14.12277013173875</v>
+        <v>13.02225872218678</v>
       </c>
       <c r="F24">
-        <v>28.00480372284142</v>
+        <v>21.03645800381874</v>
       </c>
       <c r="G24">
-        <v>3.651347094353157</v>
+        <v>2.05670079169393</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.9389251274086</v>
+        <v>29.71246245146696</v>
       </c>
       <c r="L24">
-        <v>9.276973342791255</v>
+        <v>6.50646545389984</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.92909098206809</v>
+        <v>15.80935592383383</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.65954457654762</v>
+        <v>13.01260248943965</v>
       </c>
       <c r="D25">
-        <v>5.829687746094918</v>
+        <v>4.617122739703549</v>
       </c>
       <c r="E25">
-        <v>13.98169837206123</v>
+        <v>12.07323794436118</v>
       </c>
       <c r="F25">
-        <v>28.14904359960287</v>
+        <v>20.06350773930084</v>
       </c>
       <c r="G25">
-        <v>3.655916184527234</v>
+        <v>2.07033266089347</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.76280094786733</v>
+        <v>26.91331669901129</v>
       </c>
       <c r="L25">
-        <v>9.271211960991453</v>
+        <v>6.235760692290585</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.15698723513228</v>
+        <v>15.56030842997874</v>
       </c>
     </row>
   </sheetData>
